--- a/data_entropy.xlsx
+++ b/data_entropy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FRI\MAG\OBBS\OBBS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22C0074-AE6B-4F51-8402-3ACD4808FCA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42DCCC-D747-495E-AC1F-CB8E2AAB70A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="17268" windowHeight="11004" xr2:uid="{DF5F88E5-AFB7-4F98-A671-8D6CE9E8F02D}"/>
+    <workbookView xWindow="408" yWindow="348" windowWidth="20232" windowHeight="11700" xr2:uid="{DF5F88E5-AFB7-4F98-A671-8D6CE9E8F02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5730,7 +5730,7 @@
   <dimension ref="A1:K901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
